--- a/judging_factor.xlsx
+++ b/judging_factor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\College\Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0CDB62-4845-4CB7-8A96-66C2B092A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEB5A98-F817-445A-AC2E-10E6D2AE867C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2292,11 +2292,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
